--- a/packages/excel2js/in/P配置文件.xlsx
+++ b/packages/excel2js/in/P配置文件.xlsx
@@ -21,6 +21,28 @@
     <author>pengy</author>
   </authors>
   <commentList>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>pengy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+网络等待弹框等待时间(毫秒)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B5" authorId="0">
       <text>
         <r>
@@ -92,7 +114,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>note</t>
+    <t>notes</t>
   </si>
   <si>
     <t>waitTime</t>
@@ -148,10 +170,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -176,31 +198,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,21 +289,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,20 +319,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -266,37 +328,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -304,17 +335,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,55 +357,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,127 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,35 +566,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,6 +608,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -624,20 +657,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,10 +671,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,133 +683,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1180,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1207,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>400</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
